--- a/Data/T1_EMA_S.xlsx
+++ b/Data/T1_EMA_S.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,246 +470,604 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Dividends</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Stock Splits</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>EMA10</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>EMA22</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>EMA50</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>EMA100</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>EMA250</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>EMA</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Capital Gains</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>Adj Close</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Dividends</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Stock Splits</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>EMA10</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>EMA22</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>EMA50</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>EMA100</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>EMA250</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>EMA</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>EMA_diff</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Capital Gains</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0408.HK</t>
+          <t>3326.HK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.850000023841858</v>
+        <v>0.2300000041723251</v>
       </c>
       <c r="D2" t="n">
-        <v>1.860000014305115</v>
+        <v>0.2300000041723251</v>
       </c>
       <c r="E2" t="n">
-        <v>1.840000033378601</v>
+        <v>0.2300000041723251</v>
       </c>
       <c r="F2" t="n">
-        <v>1.840000033378601</v>
+        <v>0.2380000054836273</v>
       </c>
       <c r="G2" t="n">
-        <v>1.840000033378601</v>
+        <v>24000</v>
       </c>
       <c r="H2" t="n">
-        <v>194000</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.2373360782815845</v>
       </c>
       <c r="K2" t="n">
-        <v>1.824572047540679</v>
+        <v>0.2344353830724693</v>
       </c>
       <c r="L2" t="n">
-        <v>1.807220918261417</v>
+        <v>0.223396461101604</v>
       </c>
       <c r="M2" t="n">
-        <v>1.761941125051706</v>
+        <v>0.2081290495174182</v>
       </c>
       <c r="N2" t="n">
-        <v>1.697832742891564</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.657522597942263</v>
+        <v>0.1905528426435401</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0.04224643488303811</v>
-      </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0320.HK</t>
+          <t>2886.HK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6700000166893005</v>
+        <v>1.159999966621399</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6899999976158142</v>
+        <v>1.159999966621399</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6700000166893005</v>
+        <v>1.139999985694885</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6700000166893005</v>
+        <v>1.139999985694885</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6700000166893005</v>
+        <v>107600</v>
       </c>
       <c r="H3" t="n">
-        <v>652000</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.145604999615359</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6624164654220136</v>
+        <v>1.140449325756924</v>
       </c>
       <c r="L3" t="n">
-        <v>0.656837150298346</v>
+        <v>1.119804863912812</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6256609744556471</v>
+        <v>1.093498340389375</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5751664897442218</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.5194407384741906</v>
+        <v>1.078035065277773</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0.0290833252259306</v>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2119.HK</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5799999833106995</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5799999833106995</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5799999833106995</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5799999833106995</v>
+      </c>
+      <c r="G4" t="n">
+        <v>80000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5816092205311614</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5814750160859499</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5775019944183469</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.5666969242032093</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5552942139137728</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1203.HK</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8799999952316284</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8899999856948853</v>
+      </c>
+      <c r="G5" t="n">
+        <v>508000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9131211207979921</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9120048973167392</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9001052390031842</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.8516674561273383</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.7425182432294377</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0640.HK</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.230000019073486</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.240000009536743</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.210000038146973</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.210000038146973</v>
+      </c>
+      <c r="G6" t="n">
+        <v>88000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.211282347840851</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.201132258241602</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.149354021181952</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.069396778707525</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.911403540609894</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0408.HK</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.830000042915344</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.830000042915344</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.809999942779541</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.809999942779541</v>
+      </c>
+      <c r="G7" t="n">
+        <v>24000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.807504160246236</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.782627895703007</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.726785276423693</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.642048758443362</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.546730345085844</v>
+      </c>
+      <c r="O7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0393.HK</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.279999971389771</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.289999961853027</v>
+      </c>
+      <c r="G8" t="n">
+        <v>32000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.290942993347661</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.289119617853728</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.281429389372231</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.252974369027868</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.147691219403893</v>
+      </c>
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0320.HK</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6700000166893005</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+      <c r="G9" t="n">
+        <v>28000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6656134730093848</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.6588512928768531</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.627726390249862</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.5756616129331908</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.5059305155285591</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0239.HK</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2.440000057220459</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.490000009536743</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.440000057220459</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.490000009536743</v>
+      </c>
+      <c r="G10" t="n">
+        <v>19500</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.48056713325767</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.458352251163331</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.4295120670202</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.390895973438887</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.227244577293487</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>0050.HK</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>5.050000190734863</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.050000190734863</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4.989999771118164</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5.039999961853027</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.039999961853027</v>
-      </c>
-      <c r="H4" t="n">
-        <v>60000</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.036334453949323</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.014381109469834</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4.90948088901516</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.736772662367368</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4.566708295321728</v>
-      </c>
-      <c r="P4" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.09985393052731813</v>
-      </c>
-      <c r="R4" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>5.03000020980835</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.03000020980835</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.980000019073486</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.980000019073486</v>
+      </c>
+      <c r="G11" t="n">
+        <v>24000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5.015150621280212</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.975021069043175</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.844337240607325</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4.636912746333066</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.377038071244688</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/T1_EMA_S.xlsx
+++ b/Data/T1_EMA_S.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -539,19 +539,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2300000041723251</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2300000041723251</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2300000041723251</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2380000054836273</v>
+        <v>0.239999994635582</v>
       </c>
       <c r="G2" t="n">
-        <v>24000</v>
+        <v>678000</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -560,19 +560,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2373360782815845</v>
+        <v>0.2379732852982292</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2344353830724693</v>
+        <v>0.2352160825241741</v>
       </c>
       <c r="L2" t="n">
-        <v>0.223396461101604</v>
+        <v>0.2246007642925244</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2081290495174182</v>
+        <v>0.2093407168862321</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1905528426435401</v>
+        <v>0.1913220224021474</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -593,19 +593,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.159999966621399</v>
+        <v>1.129999995231628</v>
       </c>
       <c r="D3" t="n">
-        <v>1.159999966621399</v>
+        <v>1.129999995231628</v>
       </c>
       <c r="E3" t="n">
-        <v>1.139999985694885</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="F3" t="n">
-        <v>1.139999985694885</v>
+        <v>1.120000004768372</v>
       </c>
       <c r="G3" t="n">
-        <v>107600</v>
+        <v>42000</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -614,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.145604999615359</v>
+        <v>1.141332871099824</v>
       </c>
       <c r="K3" t="n">
-        <v>1.140449325756924</v>
+        <v>1.13936035949431</v>
       </c>
       <c r="L3" t="n">
-        <v>1.119804863912812</v>
+        <v>1.120935426785327</v>
       </c>
       <c r="M3" t="n">
-        <v>1.093498340389375</v>
+        <v>1.095115971229873</v>
       </c>
       <c r="N3" t="n">
-        <v>1.078035065277773</v>
+        <v>1.078937673894486</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -639,27 +639,27 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2119.HK</t>
+          <t>1319.HK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.5799999833106995</v>
+        <v>0.2409999966621399</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5799999833106995</v>
+        <v>0.2430000007152557</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5799999833106995</v>
+        <v>0.2409999966621399</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5799999833106995</v>
+        <v>0.2430000007152557</v>
       </c>
       <c r="G4" t="n">
-        <v>80000</v>
+        <v>624000</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5816092205311614</v>
+        <v>0.2404936390442357</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5814750160859499</v>
+        <v>0.2369004614149118</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5775019944183469</v>
+        <v>0.227179876470883</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5666969242032093</v>
+        <v>0.21850695217717</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5552942139137728</v>
+        <v>0.2127784372561701</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -693,27 +693,27 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1203.HK</t>
+          <t>1097.HK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8999999761581421</v>
+        <v>0.07999999821186066</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8999999761581421</v>
+        <v>0.0820000022649765</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8799999952316284</v>
+        <v>0.07999999821186066</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8899999856948853</v>
+        <v>0.0820000022649765</v>
       </c>
       <c r="G5" t="n">
-        <v>508000</v>
+        <v>3530200</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -722,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9131211207979921</v>
+        <v>0.08049911773715192</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9120048973167392</v>
+        <v>0.07818756012755421</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9001052390031842</v>
+        <v>0.06929710738644994</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8516674561273383</v>
+        <v>0.05725340173199578</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7425182432294377</v>
+        <v>0.0439940513784097</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -755,19 +755,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.230000019073486</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="D6" t="n">
-        <v>1.240000009536743</v>
+        <v>1.220000028610229</v>
       </c>
       <c r="E6" t="n">
-        <v>1.210000038146973</v>
+        <v>1.190000057220459</v>
       </c>
       <c r="F6" t="n">
-        <v>1.210000038146973</v>
+        <v>1.200000047683716</v>
       </c>
       <c r="G6" t="n">
-        <v>88000</v>
+        <v>240000</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -776,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.211282347840851</v>
+        <v>1.208613716898327</v>
       </c>
       <c r="K6" t="n">
-        <v>1.201132258241602</v>
+        <v>1.202311659843967</v>
       </c>
       <c r="L6" t="n">
-        <v>1.149354021181952</v>
+        <v>1.155805775016183</v>
       </c>
       <c r="M6" t="n">
-        <v>1.069396778707525</v>
+        <v>1.077383276695245</v>
       </c>
       <c r="N6" t="n">
-        <v>0.911403540609894</v>
+        <v>0.9184042694896581</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -801,27 +801,27 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0408.HK</t>
+          <t>0611.HK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.830000042915344</v>
+        <v>0.4850000143051147</v>
       </c>
       <c r="D7" t="n">
-        <v>1.830000042915344</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="E7" t="n">
-        <v>1.809999942779541</v>
+        <v>0.4799999892711639</v>
       </c>
       <c r="F7" t="n">
-        <v>1.809999942779541</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="G7" t="n">
-        <v>24000</v>
+        <v>1502000</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.807504160246236</v>
+        <v>0.4801275697998205</v>
       </c>
       <c r="K7" t="n">
-        <v>1.782627895703007</v>
+        <v>0.4796377870421346</v>
       </c>
       <c r="L7" t="n">
-        <v>1.726785276423693</v>
+        <v>0.4713893104054648</v>
       </c>
       <c r="M7" t="n">
-        <v>1.642048758443362</v>
+        <v>0.4464341172068352</v>
       </c>
       <c r="N7" t="n">
-        <v>1.546730345085844</v>
+        <v>0.4058633277284648</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -855,27 +855,27 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0393.HK</t>
+          <t>0560.HK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.279999971389771</v>
+        <v>0.7799999713897705</v>
       </c>
       <c r="D8" t="n">
-        <v>1.289999961853027</v>
+        <v>0.7799999713897705</v>
       </c>
       <c r="E8" t="n">
-        <v>1.279999971389771</v>
+        <v>0.7699999809265137</v>
       </c>
       <c r="F8" t="n">
-        <v>1.289999961853027</v>
+        <v>0.7699999809265137</v>
       </c>
       <c r="G8" t="n">
-        <v>32000</v>
+        <v>296000</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -884,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.290942993347661</v>
+        <v>0.7759509719981442</v>
       </c>
       <c r="K8" t="n">
-        <v>1.289119617853728</v>
+        <v>0.7756973818513435</v>
       </c>
       <c r="L8" t="n">
-        <v>1.281429389372231</v>
+        <v>0.7748916226224016</v>
       </c>
       <c r="M8" t="n">
-        <v>1.252974369027868</v>
+        <v>0.7669133487583187</v>
       </c>
       <c r="N8" t="n">
-        <v>1.147691219403893</v>
+        <v>0.745908929375135</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -909,27 +909,27 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0320.HK</t>
+          <t>0536.HK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6700000166893005</v>
+        <v>1.009999990463257</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6800000071525574</v>
+        <v>1.019999980926514</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6700000166893005</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6800000071525574</v>
+        <v>1.009999990463257</v>
       </c>
       <c r="G9" t="n">
-        <v>28000</v>
+        <v>296000</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6656134730093848</v>
+        <v>1.020718395719522</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6588512928768531</v>
+        <v>1.017284622603273</v>
       </c>
       <c r="L9" t="n">
-        <v>0.627726390249862</v>
+        <v>0.9892785679853955</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5756616129331908</v>
+        <v>0.9513419471570707</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5059305155285591</v>
+        <v>0.8873461591520132</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -963,27 +963,27 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0239.HK</t>
+          <t>0393.HK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.440000057220459</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="D10" t="n">
-        <v>2.490000009536743</v>
+        <v>1.289999961853027</v>
       </c>
       <c r="E10" t="n">
-        <v>2.440000057220459</v>
+        <v>1.269999980926514</v>
       </c>
       <c r="F10" t="n">
-        <v>2.490000009536743</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="G10" t="n">
-        <v>19500</v>
+        <v>96000</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -992,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.48056713325767</v>
+        <v>1.289423647722453</v>
       </c>
       <c r="K10" t="n">
-        <v>2.458352251163331</v>
+        <v>1.289053153347375</v>
       </c>
       <c r="L10" t="n">
-        <v>2.4295120670202</v>
+        <v>1.282339541565411</v>
       </c>
       <c r="M10" t="n">
-        <v>2.390895973438887</v>
+        <v>1.255115265741221</v>
       </c>
       <c r="N10" t="n">
-        <v>2.227244577293487</v>
+        <v>1.151063467342259</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -1017,27 +1017,27 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45923</v>
+        <v>45926</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0050.HK</t>
+          <t>0320.HK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.03000020980835</v>
+        <v>0.6700000166893005</v>
       </c>
       <c r="D11" t="n">
-        <v>5.03000020980835</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="E11" t="n">
-        <v>4.980000019073486</v>
+        <v>0.6600000262260437</v>
       </c>
       <c r="F11" t="n">
-        <v>4.980000019073486</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="G11" t="n">
-        <v>24000</v>
+        <v>414000</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1046,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.015150621280212</v>
+        <v>0.6696369457074031</v>
       </c>
       <c r="K11" t="n">
-        <v>4.975021069043175</v>
+        <v>0.6624466850934564</v>
       </c>
       <c r="L11" t="n">
-        <v>4.844337240607325</v>
+        <v>0.6329136261522993</v>
       </c>
       <c r="M11" t="n">
-        <v>4.636912746333066</v>
+        <v>0.581357418615974</v>
       </c>
       <c r="N11" t="n">
-        <v>4.377038071244688</v>
+        <v>0.5099016338471705</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -1068,6 +1068,168 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0239.HK</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2.480000019073486</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.480000019073486</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.480000019073486</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.480000019073486</v>
+      </c>
+      <c r="G12" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.474513614039434</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.45705886539025</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.429984875496897</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2.391884016262296</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.228942370175909</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0050.HK</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4.929999828338623</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.880000114440918</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.960000038146973</v>
+      </c>
+      <c r="G13" t="n">
+        <v>232000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.990120397393799</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.971819107276048</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.85770667610772</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4.655899603480167</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.39093795679335</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0040.HK</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6899999976158142</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.6800000071525574</v>
+      </c>
+      <c r="G14" t="n">
+        <v>17000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.6804092644560343</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.6788415630372038</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.6597475887694054</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.6272215135418399</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.577573411076766</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Data/T1_EMA_S.xlsx
+++ b/Data/T1_EMA_S.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
         <v>0.239999994635582</v>
       </c>
       <c r="G2" t="n">
-        <v>678000</v>
+        <v>30000</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -560,19 +560,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2379732852982292</v>
+        <v>0.2383417779050206</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2352160825241741</v>
+        <v>0.2356320748816903</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2246007642925244</v>
+        <v>0.2252046556816691</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2093407168862321</v>
+        <v>0.2099478313171008</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1913220224021474</v>
+        <v>0.1917098945736423</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -585,27 +585,27 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2886.HK</t>
+          <t>1319.HK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.129999995231628</v>
+        <v>0.2430000007152557</v>
       </c>
       <c r="D3" t="n">
-        <v>1.129999995231628</v>
+        <v>0.2450000047683716</v>
       </c>
       <c r="E3" t="n">
-        <v>1.120000004768372</v>
+        <v>0.2430000007152557</v>
       </c>
       <c r="F3" t="n">
-        <v>1.120000004768372</v>
+        <v>0.2450000047683716</v>
       </c>
       <c r="G3" t="n">
-        <v>42000</v>
+        <v>808000</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -614,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.141332871099824</v>
+        <v>0.2413129782668059</v>
       </c>
       <c r="K3" t="n">
-        <v>1.13936035949431</v>
+        <v>0.2376047695326045</v>
       </c>
       <c r="L3" t="n">
-        <v>1.120935426785327</v>
+        <v>0.22787870503519</v>
       </c>
       <c r="M3" t="n">
-        <v>1.095115971229873</v>
+        <v>0.2190315671843353</v>
       </c>
       <c r="N3" t="n">
-        <v>1.078937673894486</v>
+        <v>0.2130351833497412</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -639,27 +639,27 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1319.HK</t>
+          <t>0818.HK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2409999966621399</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2430000007152557</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2409999966621399</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2430000007152557</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="G4" t="n">
-        <v>624000</v>
+        <v>591000</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2404936390442357</v>
+        <v>0.5204314654130113</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2369004614149118</v>
+        <v>0.5181080799412701</v>
       </c>
       <c r="L4" t="n">
-        <v>0.227179876470883</v>
+        <v>0.5100327268830984</v>
       </c>
       <c r="M4" t="n">
-        <v>0.21850695217717</v>
+        <v>0.4841016320774587</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2127784372561701</v>
+        <v>0.4514684162407553</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -693,27 +693,27 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1097.HK</t>
+          <t>0611.HK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.07999999821186066</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0820000022649765</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07999999821186066</v>
+        <v>0.4799999892711639</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0820000022649765</v>
+        <v>0.4850000143051147</v>
       </c>
       <c r="G5" t="n">
-        <v>3530200</v>
+        <v>1096000</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -722,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08049911773715192</v>
+        <v>0.4810134688007831</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07818756012755421</v>
+        <v>0.4801040676736982</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06929710738644994</v>
+        <v>0.4719230634995687</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05725340173199578</v>
+        <v>0.4471977983374942</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0439940513784097</v>
+        <v>0.4064938989362469</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -747,27 +747,27 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0640.HK</t>
+          <t>0536.HK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.200000047683716</v>
+        <v>1.009999990463257</v>
       </c>
       <c r="D6" t="n">
-        <v>1.220000028610229</v>
+        <v>1.009999990463257</v>
       </c>
       <c r="E6" t="n">
-        <v>1.190000057220459</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1.200000047683716</v>
+        <v>1.009999990463257</v>
       </c>
       <c r="G6" t="n">
-        <v>240000</v>
+        <v>44000</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -776,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.208613716898327</v>
+        <v>1.018769594763837</v>
       </c>
       <c r="K6" t="n">
-        <v>1.202311659843967</v>
+        <v>1.016651176330229</v>
       </c>
       <c r="L6" t="n">
-        <v>1.155805775016183</v>
+        <v>0.9900911727884604</v>
       </c>
       <c r="M6" t="n">
-        <v>1.077383276695245</v>
+        <v>0.9525034925586787</v>
       </c>
       <c r="N6" t="n">
-        <v>0.9184042694896581</v>
+        <v>0.8883234797126102</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -801,27 +801,27 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0611.HK</t>
+          <t>0393.HK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4850000143051147</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4900000095367432</v>
+        <v>1.289999961853027</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4799999892711639</v>
+        <v>1.279999971389771</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4900000095367432</v>
+        <v>1.289999961853027</v>
       </c>
       <c r="G7" t="n">
-        <v>1502000</v>
+        <v>40000</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4801275697998205</v>
+        <v>1.28952843210983</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4796377870421346</v>
+        <v>1.289135484523544</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4713893104054648</v>
+        <v>1.282639950468027</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4464341172068352</v>
+        <v>1.255806052954737</v>
       </c>
       <c r="N7" t="n">
-        <v>0.4058633277284648</v>
+        <v>1.152170532741354</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -855,48 +855,48 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0560.HK</t>
+          <t>0320.HK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.7799999713897705</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7799999713897705</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7699999809265137</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7699999809265137</v>
+        <v>0.6200000047683716</v>
       </c>
       <c r="G8" t="n">
-        <v>296000</v>
+        <v>504000</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7759509719981442</v>
+        <v>0.6171035797167453</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7756973818513435</v>
+        <v>0.6107240785946264</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7748916226224016</v>
+        <v>0.58411745707881</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7669133487583187</v>
+        <v>0.5368702081016169</v>
       </c>
       <c r="N8" t="n">
-        <v>0.745908929375135</v>
+        <v>0.4706093820240114</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -909,27 +909,27 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0536.HK</t>
+          <t>0280.HK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.009999990463257</v>
+        <v>0.4950000047683716</v>
       </c>
       <c r="D9" t="n">
-        <v>1.019999980926514</v>
+        <v>0.4950000047683716</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="F9" t="n">
-        <v>1.009999990463257</v>
+        <v>0.4950000047683716</v>
       </c>
       <c r="G9" t="n">
-        <v>296000</v>
+        <v>388000</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.020718395719522</v>
+        <v>0.4942074419699575</v>
       </c>
       <c r="K9" t="n">
-        <v>1.017284622603273</v>
+        <v>0.4874106119388132</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9892785679853955</v>
+        <v>0.4652013897400252</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9513419471570707</v>
+        <v>0.4329257644761362</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8873461591520132</v>
+        <v>0.3865380879363665</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -963,27 +963,27 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0393.HK</t>
+          <t>0050.HK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.279999971389771</v>
+        <v>4.940000057220459</v>
       </c>
       <c r="D10" t="n">
-        <v>1.289999961853027</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>1.269999980926514</v>
+        <v>4.940000057220459</v>
       </c>
       <c r="F10" t="n">
-        <v>1.279999971389771</v>
+        <v>4.989999771118164</v>
       </c>
       <c r="G10" t="n">
-        <v>96000</v>
+        <v>20930</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -992,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.289423647722453</v>
+        <v>4.990098465343682</v>
       </c>
       <c r="K10" t="n">
-        <v>1.289053153347375</v>
+        <v>4.973400034569623</v>
       </c>
       <c r="L10" t="n">
-        <v>1.282339541565411</v>
+        <v>4.862894640814613</v>
       </c>
       <c r="M10" t="n">
-        <v>1.255115265741221</v>
+        <v>4.662515448482042</v>
       </c>
       <c r="N10" t="n">
-        <v>1.151063467342259</v>
+        <v>4.39571135108423</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -1017,27 +1017,27 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45926</v>
+        <v>45929</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0320.HK</t>
+          <t>0040.HK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6700000166893005</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="D11" t="n">
+        <v>0.699999988079071</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.6800000071525574</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.6600000262260437</v>
       </c>
       <c r="F11" t="n">
         <v>0.6800000071525574</v>
       </c>
       <c r="G11" t="n">
-        <v>414000</v>
+        <v>5000</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1046,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6696369457074031</v>
+        <v>0.6803348540372203</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6624466850934564</v>
+        <v>0.6789422973081041</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6329136261522993</v>
+        <v>0.660541801256407</v>
       </c>
       <c r="M11" t="n">
-        <v>0.581357418615974</v>
+        <v>0.6282666323473127</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5099016338471705</v>
+        <v>0.5783895609977534</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
@@ -1068,168 +1068,6 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0239.HK</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2.480000019073486</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.480000019073486</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2.480000019073486</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.480000019073486</v>
-      </c>
-      <c r="G12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.474513614039434</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.45705886539025</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.429984875496897</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2.391884016262296</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.228942370175909</v>
-      </c>
-      <c r="O12" t="b">
-        <v>1</v>
-      </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0050.HK</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>4.929999828338623</v>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4.880000114440918</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4.960000038146973</v>
-      </c>
-      <c r="G13" t="n">
-        <v>232000</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.990120397393799</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.971819107276048</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.85770667610772</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4.655899603480167</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.39093795679335</v>
-      </c>
-      <c r="O13" t="b">
-        <v>1</v>
-      </c>
-      <c r="P13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45926</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0040.HK</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.6899999976158142</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.6899999976158142</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.6800000071525574</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.6800000071525574</v>
-      </c>
-      <c r="G14" t="n">
-        <v>17000</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6804092644560343</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.6788415630372038</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.6597475887694054</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.6272215135418399</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.577573411076766</v>
-      </c>
-      <c r="O14" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
